--- a/pred_ohlcv/54_21/2020-01-24 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4821720.851400001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3933608.410799999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4349263.304199999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3488734.608033973</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3488734.608033973</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6351880.608033974</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-6351880.608033974</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-6321429.977233973</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6477137.272233973</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6477137.272233973</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-6422949.838833973</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-6422660.838833973</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-6422660.838833973</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-6444591.674433973</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-8734364.674433973</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-8011681.598733971</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-8004065.635833971</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-10264040.63583397</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-10263740.63583397</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-12110500.63583397</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-14558128.79823397</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-14662796.72633397</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-11761416.72633397</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-11761133.72633397</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-11473491.58843397</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-10487856.58843397</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-13124367.58843397</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-13124084.58843397</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-13129488.63673397</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-13123803.58843397</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-13181588.87901327</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-12855580.99831327</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-12855016.78321327</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-12726589.46711327</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-11996713.46711327</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-15560151.46711327</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-15441547.90811327</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-18536114.90811327</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-17160833.95881327</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-17160558.95881327</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-20046837.95881327</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-19143794.07901327</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-19667656.07901327</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-19529574.72331327</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-19588459.35971327</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-19583139.10601327</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-19578139.10601327</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-21923011.68391327</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-24153350.68391327</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-24184555.05291327</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-45098477.71751326</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-44646860.04121326</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-47088041.32121326</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-47918348.32121326</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-44222269.32121326</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-42143805.32121326</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-43473531.32121326</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-43272178.99571326</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-42166442.57101326</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-45556965.57101326</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-45553410.44151326</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-47223920.44151326</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-49867431.47151326</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-51137952.96251326</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-57103681.96251326</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-59325539.15961326</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-59324929.87721326</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-59912332.92241325</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-63451756.72143523</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-62666206.87405722</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-62665929.87405722</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-62699140.25265722</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-62699140.25265722</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-63025823.68015722</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-72427679.62285723</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 AOA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>4821720.851400001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3933608.410799999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4349263.304199999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-8011681.598733971</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-8004065.635833971</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-10264040.63583397</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-10263740.63583397</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-12622514.63583397</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-12110500.63583397</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-14558128.79823397</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-14662796.72633397</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-11761416.72633397</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-11761133.72633397</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-11473491.58843397</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-10487856.58843397</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-13124367.58843397</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-13124084.58843397</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-13129488.63673397</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-13123803.58843397</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-13181588.87901327</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-13181588.87901327</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-12855580.99831327</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-12855016.78321327</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-12726589.46711327</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-11996713.46711327</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-15560151.46711327</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-15441547.90811327</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-18536114.90811327</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-17160833.95881327</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-17160558.95881327</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-20046837.95881327</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-19143794.07901327</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-19667656.07901327</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-24153350.68391327</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-47918348.32121326</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-44222269.32121326</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-43473531.32121326</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-43272178.99571326</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-42166442.57101326</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-45556965.57101326</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-45553410.44151326</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-47223920.44151326</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-53298462.96251326</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-57103681.96251326</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-59324929.87721326</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-59324929.87721326</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-59912332.92241325</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-63451756.72143523</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-62666206.87405722</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-62665929.87405722</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-62699140.25265722</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-62699140.25265722</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-63025823.68015722</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-63017277.64155722</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-65956343.50555722</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-65316807.89665722</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-65342770.49975722</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-65516423.89355722</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-65516137.70905722</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-68847232.70805722</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-68846650.69295722</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-68846650.69295722</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-68846091.89375722</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-71163233.68955722</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-71163233.68955722</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-71162954.68955722</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-71161825.95465723</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-72582190.95465723</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-72582190.95465723</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-72427679.62285723</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-72427679.62285723</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-72426949.77294061</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
